--- a/biology/Botanique/Badianier/Badianier.xlsx
+++ b/biology/Botanique/Badianier/Badianier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Illicium
-« Badianier  » est le nom vernaculaire des arbres du genre Illicium appartenant à la famille des Schisandraceae selon la classification phylogénétique APG III (2009)[2]. Son nom latin illicium signifie « attrayant ».
+« Badianier  » est le nom vernaculaire des arbres du genre Illicium appartenant à la famille des Schisandraceae selon la classification phylogénétique APG III (2009). Son nom latin illicium signifie « attrayant ».
 Leur fruit, la badiane ou anis étoilé, a divers usages.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 juin 2010)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 juin 2010) :
 Illicium angustisepalum
 Illicium anisatum
 Illicium arborescens
@@ -538,7 +552,7 @@
 Illicium spathulatum
 Illicium ternstroemioides
 Illicium verum
-Selon ITIS      (3 juin 2010)[4] :
+Selon ITIS      (3 juin 2010) :
 Illicium floridanum Ellis
 Illicium parviflorum Michx. ex Vent.
 Illicium verum Hook. f.
